--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value801.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value801.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.772400343287686</v>
+        <v>1.303725242614746</v>
       </c>
       <c r="B1">
-        <v>3.158570593788129</v>
+        <v>1.927546262741089</v>
       </c>
       <c r="C1">
-        <v>2.494394035268978</v>
+        <v>3.892374753952026</v>
       </c>
       <c r="D1">
-        <v>2.308647313768278</v>
+        <v>0.892136812210083</v>
       </c>
       <c r="E1">
-        <v>1.908516855294851</v>
+        <v>0.7888664603233337</v>
       </c>
     </row>
   </sheetData>
